--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007316</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德可转债债券A</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007317</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德可转债债券C</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>26.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>002808</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>泓德优势领航灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.17</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>180028</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>银华永祥灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002808</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泓德优势领航灵活配置混合</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1044,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.14</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>007316</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>交银施罗德可转债债券A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>180028</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华永祥灵活配置混合</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>007317</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>交银施罗德可转债债券C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>78.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>21.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.82</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.64</v>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.38</v>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2543,13 +2630,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3129,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,17 +3141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.04</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3176,14 +3219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.82</v>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3192,14 +3257,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.64</v>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3208,14 +3295,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.38</v>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3224,13 +3333,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.97</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.04</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.82</v>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3683,14 +3770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.64</v>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3699,14 +3808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.38</v>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3715,13 +3846,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.04</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.82</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.64</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.38</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.89</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2761,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3121,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
+++ b/数据整理/stocks/A股/上证主板/603866-桃李面包.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>3.04</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3.82</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.64</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>4.38</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.89</v>
       </c>
     </row>
@@ -616,7 +633,1221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +3269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2702,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3574,7 +4805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3970,744 +5201,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7415</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7415</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3071</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1506</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008372</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国阿尔法两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5719</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002808</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泓德优势领航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4290</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000471</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国城镇发展股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3055</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>